--- a/data/microservice-recruit/pf-recruit_structure.xlsx
+++ b/data/microservice-recruit/pf-recruit_structure.xlsx
@@ -1194,63 +1194,63 @@
     <t>recruitList</t>
   </si>
   <si>
+    <t>log</t>
+  </si>
+  <si>
     <t>charset</t>
   </si>
   <si>
     <t>java.nio.charset.Charset</t>
   </si>
   <si>
-    <t>log</t>
-  </si>
-  <si>
     <t>prefix</t>
   </si>
   <si>
     <t>phone</t>
   </si>
   <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>firstId</t>
+  </si>
+  <si>
+    <t>projectId</t>
+  </si>
+  <si>
     <t>role</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>nickname</t>
-  </si>
-  <si>
-    <t>projectId</t>
-  </si>
-  <si>
-    <t>firstId</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>skillList</t>
   </si>
   <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>school</t>
   </si>
   <si>
-    <t>userId</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
     <t>recruitService</t>
   </si>
   <si>
@@ -1275,22 +1275,25 @@
     <t>this$0</t>
   </si>
   <si>
+    <t>UNKNOW_ERROR</t>
+  </si>
+  <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
+    <t>NEED_LOGIN</t>
+  </si>
+  <si>
+    <t>RECRUIT_NOT_EXIST</t>
+  </si>
+  <si>
     <t>msg</t>
   </si>
   <si>
-    <t>NEED_LOGIN</t>
-  </si>
-  <si>
-    <t>RECRUIT_NOT_EXIST</t>
-  </si>
-  <si>
     <t>SUCCESS</t>
   </si>
   <si>
-    <t>UNKNOW_ERROR</t>
-  </si>
-  <si>
-    <t>$VALUES</t>
+    <t>$assertionsDisabled</t>
   </si>
   <si>
     <t>serialVersionUID</t>
@@ -1299,7 +1302,10 @@
     <t>long</t>
   </si>
   <si>
-    <t>$assertionsDisabled</t>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>introduce</t>
   </si>
   <si>
     <t>type</t>
@@ -1308,88 +1314,82 @@
     <t>avatar</t>
   </si>
   <si>
-    <t>introduce</t>
-  </si>
-  <si>
-    <t>scale</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
+    <t>COMPANY_REDIS_PREFIX</t>
+  </si>
+  <si>
+    <t>JOINER</t>
+  </si>
+  <si>
+    <t>com.google.common.base.Joiner</t>
+  </si>
+  <si>
+    <t>HANDLE_RESUME</t>
+  </si>
+  <si>
     <t>SPLIT</t>
   </si>
   <si>
-    <t>HANDLE_RESUME</t>
-  </si>
-  <si>
-    <t>JOINER</t>
-  </si>
-  <si>
-    <t>com.google.common.base.Joiner</t>
-  </si>
-  <si>
-    <t>COMPANY_REDIS_PREFIX</t>
+    <t>RECEIVE_RESUME</t>
   </si>
   <si>
     <t>SEND_RESUME</t>
   </si>
   <si>
-    <t>RECEIVE_RESUME</t>
-  </si>
-  <si>
     <t>RECRUIT_REDIS_PREFIX</t>
   </si>
   <si>
     <t>recruitId</t>
   </si>
   <si>
+    <t>exec</t>
+  </si>
+  <si>
+    <t>java.util.concurrent.ExecutorService</t>
+  </si>
+  <si>
+    <t>resumeClient</t>
+  </si>
+  <si>
+    <t>producer</t>
+  </si>
+  <si>
+    <t>com.stalary.lightmqclient.facade.Producer</t>
+  </si>
+  <si>
     <t>redis</t>
   </si>
   <si>
+    <t>recruitRepo</t>
+  </si>
+  <si>
+    <t>userClient</t>
+  </si>
+  <si>
     <t>companyRepo</t>
   </si>
   <si>
-    <t>userClient</t>
-  </si>
-  <si>
-    <t>resumeClient</t>
-  </si>
-  <si>
-    <t>producer</t>
-  </si>
-  <si>
-    <t>com.stalary.lightmqclient.facade.Producer</t>
-  </si>
-  <si>
-    <t>exec</t>
-  </si>
-  <si>
-    <t>java.util.concurrent.ExecutorService</t>
-  </si>
-  <si>
-    <t>recruitRepo</t>
-  </si>
-  <si>
     <t>weight</t>
   </si>
   <si>
+    <t>intentionJob</t>
+  </si>
+  <si>
+    <t>intentionCompany</t>
+  </si>
+  <si>
     <t>education</t>
   </si>
   <si>
-    <t>intentionCompany</t>
-  </si>
-  <si>
-    <t>intentionJob</t>
-  </si>
-  <si>
     <t>job</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
     <t>companyName</t>
-  </si>
-  <si>
-    <t>title</t>
   </si>
   <si>
     <t>candidateList</t>
@@ -18754,7 +18754,7 @@
         <v>163</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>391</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -18762,13 +18762,13 @@
         <v>38</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>85</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6">
@@ -18810,7 +18810,7 @@
         <v>163</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -18838,7 +18838,7 @@
         <v>163</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -18866,7 +18866,7 @@
         <v>163</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
@@ -18880,7 +18880,7 @@
         <v>163</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -18908,7 +18908,7 @@
         <v>163</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
@@ -18922,7 +18922,7 @@
         <v>163</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
@@ -18930,7 +18930,7 @@
         <v>73</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>163</v>
@@ -18944,7 +18944,7 @@
         <v>90</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>163</v>
@@ -18978,7 +18978,7 @@
         <v>163</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -19020,7 +19020,7 @@
         <v>163</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -19028,7 +19028,7 @@
         <v>368</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>163</v>
@@ -19056,7 +19056,7 @@
         <v>106</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>163</v>
@@ -19070,7 +19070,7 @@
         <v>106</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>163</v>
@@ -19084,7 +19084,7 @@
         <v>106</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>163</v>
@@ -19098,13 +19098,13 @@
         <v>106</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -19112,7 +19112,7 @@
         <v>106</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>163</v>
@@ -19126,13 +19126,13 @@
         <v>106</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -19140,7 +19140,7 @@
         <v>106</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>163</v>
@@ -19182,13 +19182,13 @@
         <v>123</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>57</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36">
@@ -19196,13 +19196,13 @@
         <v>123</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>126</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37">
@@ -19280,13 +19280,13 @@
         <v>158</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>51</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43">
@@ -19294,13 +19294,13 @@
         <v>158</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>15</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44">
@@ -19308,7 +19308,7 @@
         <v>158</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>6</v>
@@ -19322,7 +19322,7 @@
         <v>158</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>6</v>
@@ -19336,13 +19336,13 @@
         <v>158</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>158</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -19350,7 +19350,7 @@
         <v>158</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>6</v>
@@ -19364,13 +19364,13 @@
         <v>158</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>166</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49">
@@ -19378,7 +19378,7 @@
         <v>109</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>163</v>
@@ -19392,7 +19392,7 @@
         <v>109</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>163</v>
@@ -19406,13 +19406,13 @@
         <v>109</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52">
@@ -19420,13 +19420,13 @@
         <v>109</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53">
@@ -19434,7 +19434,7 @@
         <v>109</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>163</v>
@@ -19448,13 +19448,13 @@
         <v>109</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -19462,7 +19462,7 @@
         <v>109</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>163</v>
@@ -19476,13 +19476,13 @@
         <v>109</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -19490,13 +19490,13 @@
         <v>180</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -19504,13 +19504,13 @@
         <v>180</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>424</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59">
@@ -19518,13 +19518,13 @@
         <v>180</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>85</v>
+        <v>425</v>
       </c>
     </row>
     <row r="60">
@@ -19532,13 +19532,13 @@
         <v>180</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>84</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>7</v>
+        <v>425</v>
       </c>
     </row>
     <row r="61">
@@ -19546,13 +19546,13 @@
         <v>180</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>424</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62">
@@ -19574,7 +19574,7 @@
         <v>32</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>163</v>
@@ -19588,7 +19588,7 @@
         <v>32</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>163</v>
@@ -19664,7 +19664,7 @@
         <v>6</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>15</v>
+        <v>433</v>
       </c>
     </row>
     <row r="70">
@@ -19672,13 +19672,13 @@
         <v>211</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>434</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
@@ -19742,7 +19742,7 @@
         <v>214</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>163</v>
@@ -19756,13 +19756,13 @@
         <v>214</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77">
@@ -19770,13 +19770,13 @@
         <v>214</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>408</v>
+        <v>439</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78">
@@ -19784,7 +19784,7 @@
         <v>219</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>163</v>
@@ -19804,7 +19804,7 @@
         <v>163</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>87</v>
+        <v>441</v>
       </c>
     </row>
     <row r="80">
@@ -19812,13 +19812,13 @@
         <v>222</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>305</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81">
@@ -19826,13 +19826,13 @@
         <v>222</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>33</v>
+        <v>444</v>
       </c>
     </row>
     <row r="82">
@@ -19840,13 +19840,13 @@
         <v>222</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>133</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83">
@@ -19854,13 +19854,13 @@
         <v>222</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>445</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84">
@@ -19868,13 +19868,13 @@
         <v>222</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>446</v>
+        <v>390</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>447</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85">
@@ -19882,13 +19882,13 @@
         <v>222</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>85</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86">
@@ -19902,7 +19902,7 @@
         <v>163</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>135</v>
+        <v>305</v>
       </c>
     </row>
     <row r="87">
@@ -19938,13 +19938,13 @@
         <v>278</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>90</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90">
@@ -19952,13 +19952,13 @@
         <v>278</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91">
@@ -19966,7 +19966,7 @@
         <v>282</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>163</v>
@@ -19994,13 +19994,13 @@
         <v>282</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>451</v>
+        <v>406</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94">
@@ -20008,7 +20008,7 @@
         <v>282</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>163</v>
@@ -20036,13 +20036,13 @@
         <v>282</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97">
@@ -20050,13 +20050,13 @@
         <v>250</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98">
@@ -20078,13 +20078,13 @@
         <v>250</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>439</v>
+        <v>388</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
@@ -20092,13 +20092,13 @@
         <v>296</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101">
@@ -20106,7 +20106,7 @@
         <v>296</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>163</v>
@@ -20120,13 +20120,13 @@
         <v>296</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103">
@@ -20134,7 +20134,7 @@
         <v>302</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>163</v>
@@ -20148,7 +20148,7 @@
         <v>307</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>163</v>
@@ -20176,13 +20176,13 @@
         <v>225</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>32</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107">
@@ -20190,13 +20190,13 @@
         <v>225</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>145</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108">
@@ -20204,13 +20204,13 @@
         <v>315</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="109">
@@ -20218,13 +20218,13 @@
         <v>315</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110">
@@ -20246,7 +20246,7 @@
         <v>320</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>163</v>
@@ -20274,7 +20274,7 @@
         <v>320</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>163</v>
@@ -20302,7 +20302,7 @@
         <v>330</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>163</v>
@@ -20316,7 +20316,7 @@
         <v>330</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>163</v>
@@ -20330,13 +20330,13 @@
         <v>330</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>15</v>
+        <v>333</v>
       </c>
     </row>
     <row r="118">
@@ -20344,13 +20344,13 @@
         <v>330</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>333</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
@@ -20358,7 +20358,7 @@
         <v>145</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>163</v>
@@ -20372,13 +20372,13 @@
         <v>145</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>404</v>
+        <v>462</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121">
@@ -20386,7 +20386,7 @@
         <v>145</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>163</v>
@@ -20400,13 +20400,13 @@
         <v>145</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123">
@@ -20414,13 +20414,13 @@
         <v>145</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>455</v>
+        <v>404</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124">
@@ -20428,13 +20428,13 @@
         <v>145</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>464</v>
+        <v>410</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="125">
@@ -20456,7 +20456,7 @@
         <v>35</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>163</v>
@@ -20470,13 +20470,13 @@
         <v>35</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>396</v>
+        <v>465</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128">
@@ -20484,13 +20484,13 @@
         <v>35</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>465</v>
+        <v>398</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>163</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129">
@@ -27553,7 +27553,7 @@
         <v>123</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>472</v>
@@ -27570,7 +27570,7 @@
         <v>123</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>472</v>
@@ -27655,7 +27655,7 @@
         <v>123</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>472</v>
@@ -27672,7 +27672,7 @@
         <v>158</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>472</v>
@@ -27706,7 +27706,7 @@
         <v>123</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>472</v>
